--- a/results/mp/deberta/corona/confidence/84/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="271">
   <si>
     <t>anchor score</t>
   </si>
@@ -85,172 +85,172 @@
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>competition</t>
   </si>
   <si>
     <t>community</t>
@@ -1192,10 +1192,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1324,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1374,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5">
         <v>0.967741935483871</v>
@@ -1424,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>0.9615384615384616</v>
@@ -1474,7 +1474,7 @@
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7">
         <v>0.9482758620689655</v>
@@ -1524,7 +1524,7 @@
         <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8">
         <v>0.9333333333333333</v>
@@ -1574,7 +1574,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9">
         <v>0.9333333333333333</v>
@@ -1624,7 +1624,7 @@
         <v>40</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10">
         <v>0.9090909090909091</v>
@@ -1674,7 +1674,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>0.8947368421052632</v>
@@ -1724,7 +1724,7 @@
         <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>0.8898305084745762</v>
@@ -1774,7 +1774,7 @@
         <v>327</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13">
         <v>0.8666666666666667</v>
@@ -1824,7 +1824,7 @@
         <v>36</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>0.8666666666666667</v>
@@ -1874,7 +1874,7 @@
         <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>0.8666666666666667</v>
@@ -1924,7 +1924,7 @@
         <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>0.8611111111111112</v>
@@ -1974,7 +1974,7 @@
         <v>119</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>0.84</v>
@@ -2003,28 +2003,28 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1167883211678832</v>
+        <v>0.08764940239043825</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>0.93</v>
+        <v>0.04</v>
       </c>
       <c r="F18">
-        <v>0.06999999999999995</v>
+        <v>0.96</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18">
         <v>0.8375</v>
@@ -2053,28 +2053,28 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.08764940239043825</v>
+        <v>0.04289544235924933</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>0.8267716535433071</v>
@@ -2103,28 +2103,28 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.04289544235924933</v>
+        <v>0.02122905027932961</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.21</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>357</v>
+        <v>876</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20">
         <v>0.8181818181818182</v>
@@ -2153,28 +2153,28 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02122905027932961</v>
+        <v>0.02078239608801956</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>92</v>
+        <v>541</v>
       </c>
       <c r="E21">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F21">
-        <v>0.21</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>876</v>
+        <v>1602</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21">
         <v>0.8181818181818182</v>
@@ -2203,28 +2203,28 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.02078239608801956</v>
+        <v>0.01849217638691323</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>541</v>
+        <v>177</v>
       </c>
       <c r="E22">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F22">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1602</v>
+        <v>690</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
         <v>0.8148148148148148</v>
@@ -2253,28 +2253,28 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01849217638691323</v>
+        <v>0.01778907242693774</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>177</v>
+        <v>788</v>
       </c>
       <c r="E23">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F23">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>690</v>
+        <v>2319</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23">
         <v>0.7948717948717948</v>
@@ -2303,28 +2303,28 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01778907242693774</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="C24">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>788</v>
+        <v>181</v>
       </c>
       <c r="E24">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F24">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2319</v>
+        <v>980</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24">
         <v>0.7857142857142857</v>
@@ -2353,28 +2353,28 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01606425702811245</v>
+        <v>0.01030534351145038</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>181</v>
+        <v>608</v>
       </c>
       <c r="E25">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F25">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>980</v>
+        <v>2593</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K25">
         <v>0.7777777777777778</v>
@@ -2399,32 +2399,8 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.01030534351145038</v>
-      </c>
-      <c r="C26">
-        <v>27</v>
-      </c>
-      <c r="D26">
-        <v>608</v>
-      </c>
-      <c r="E26">
-        <v>0.96</v>
-      </c>
-      <c r="F26">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2593</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K26">
         <v>0.7719298245614035</v>
@@ -2450,7 +2426,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27">
         <v>0.7692307692307693</v>
@@ -2476,7 +2452,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K28">
         <v>0.7647058823529411</v>
@@ -2502,7 +2478,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K29">
         <v>0.7647058823529411</v>
@@ -2528,7 +2504,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K30">
         <v>0.75177304964539</v>
@@ -2554,7 +2530,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K31">
         <v>0.75</v>
@@ -2580,7 +2556,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K32">
         <v>0.7446808510638298</v>
@@ -2606,7 +2582,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33">
         <v>0.7368421052631579</v>
@@ -2632,7 +2608,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K34">
         <v>0.7227722772277227</v>
@@ -2658,7 +2634,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K35">
         <v>0.7111111111111111</v>
@@ -2684,7 +2660,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K36">
         <v>0.6923076923076923</v>
@@ -2710,7 +2686,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K37">
         <v>0.6862745098039216</v>
@@ -2736,94 +2712,94 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.6855895196506551</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="L38">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>0.6829268292682927</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N39">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O39">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>0.6739130434782609</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K41">
-        <v>0.6571428571428571</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2835,12 +2811,12 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K42">
         <v>0.6521739130434783</v>
@@ -2866,7 +2842,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K43">
         <v>0.6363636363636364</v>
@@ -2892,7 +2868,7 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K44">
         <v>0.6333333333333333</v>
@@ -2918,7 +2894,7 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K45">
         <v>0.6325459317585301</v>
@@ -2944,28 +2920,28 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="K46">
-        <v>0.6265432098765432</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L46">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="M46">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="N46">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O46">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>121</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2973,25 +2949,25 @@
         <v>76</v>
       </c>
       <c r="K47">
-        <v>0.6190476190476191</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L47">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2999,25 +2975,25 @@
         <v>77</v>
       </c>
       <c r="K48">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N48">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O48">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -3025,25 +3001,25 @@
         <v>78</v>
       </c>
       <c r="K49">
-        <v>0.6</v>
+        <v>0.5970588235294118</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -6246,7 +6222,7 @@
     </row>
     <row r="173" spans="10:17">
       <c r="J173" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K173">
         <v>0.2433931484502447</v>
@@ -6324,7 +6300,7 @@
     </row>
     <row r="176" spans="10:17">
       <c r="J176" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K176">
         <v>0.240398293029872</v>
@@ -6974,7 +6950,7 @@
     </row>
     <row r="201" spans="10:17">
       <c r="J201" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K201">
         <v>0.1920374707259953</v>
@@ -7182,7 +7158,7 @@
     </row>
     <row r="209" spans="10:17">
       <c r="J209" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K209">
         <v>0.183049779458097</v>
@@ -7728,7 +7704,7 @@
     </row>
     <row r="230" spans="10:17">
       <c r="J230" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K230">
         <v>0.1441048034934498</v>
@@ -8092,7 +8068,7 @@
     </row>
     <row r="244" spans="10:17">
       <c r="J244" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K244">
         <v>0.07692307692307693</v>
